--- a/results/many_different/average_case_results.xlsx
+++ b/results/many_different/average_case_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_different/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{836D94C0-5CBE-4901-BD57-DA90005B2755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E482413B-0E27-47F0-A7D3-51A5F00D7353}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{836D94C0-5CBE-4901-BD57-DA90005B2755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FAA6F5-900E-4D7D-B0A4-65E960CBD2F7}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="1845" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="2385" windowWidth="27360" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -605,19 +605,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -643,19 +637,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -686,19 +674,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -797,19 +779,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -908,19 +884,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1019,19 +989,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1130,19 +1094,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1241,19 +1199,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1352,7 +1304,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1360,13 +1312,7 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1476,10 +1422,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1507,10 +1454,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1530,9 +1478,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1546,8 +1494,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1576,9 +1525,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1593,10 +1542,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1606,13 +1556,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Zeit</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1629,10 +1574,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1662,8 +1608,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1703,8 +1650,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1728,28 +1676,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1792,19 +1729,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1830,19 +1761,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1873,19 +1798,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1984,19 +1903,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2095,19 +2008,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2206,19 +2113,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2317,19 +2218,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2428,19 +2323,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2549,26 +2438,13 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="window" lastClr="FFFFFF">
-                        <a:lumMod val="85000"/>
-                      </a:sysClr>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2576,20 +2452,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Größe</a:t>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> der Eingabe in log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2605,26 +2470,13 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="window" lastClr="FFFFFF">
-                      <a:lumMod val="85000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2643,9 +2495,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2659,8 +2511,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2689,9 +2542,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2706,10 +2559,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2737,10 +2591,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2770,8 +2625,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2811,8 +2667,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2836,28 +2693,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2960,33 +2806,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2994,34 +2842,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3030,8 +2870,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3050,6 +2891,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3058,35 +2907,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3098,29 +2957,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3138,18 +2999,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3159,20 +3023,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3186,14 +3050,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3207,8 +3071,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3222,6 +3087,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3233,9 +3104,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3250,100 +3121,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3351,14 +3215,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3370,19 +3234,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3398,6 +3255,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3406,8 +3264,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3417,7 +3276,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3425,9 +3284,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3438,8 +3297,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3451,38 +3311,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3490,34 +3358,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3526,8 +3386,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3546,6 +3407,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3554,35 +3423,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3594,29 +3473,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3634,18 +3515,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3655,20 +3539,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3682,14 +3566,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3703,8 +3587,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3718,6 +3603,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3729,9 +3620,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3746,100 +3637,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3847,14 +3731,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3866,19 +3750,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3894,6 +3771,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3902,8 +3780,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3913,7 +3792,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3921,9 +3800,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3934,8 +3813,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3947,6 +3827,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4332,7 +4218,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/many_different/average_case_results.xlsx
+++ b/results/many_different/average_case_results.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="73" documentId="8_{836D94C0-5CBE-4901-BD57-DA90005B2755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FAA6F5-900E-4D7D-B0A4-65E960CBD2F7}"/>
   <bookViews>
-    <workbookView xWindow="21435" yWindow="2385" windowWidth="27360" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20175" yWindow="3525" windowWidth="27360" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_case_results" sheetId="1" r:id="rId1"/>
@@ -4218,7 +4218,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
